--- a/public/sample.xlsx
+++ b/public/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Extreme Pro/Dropbox/project/iaFukusa/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7378B04C-90EE-154E-87A5-F78F8B7A86AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B7BDDA-9606-1545-B511-746148674DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25780" yWindow="6240" windowWidth="26680" windowHeight="22540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25780" yWindow="6240" windowWidth="26680" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="162">
   <si>
     <t>学修番号</t>
   </si>
@@ -560,6 +560,13 @@
   </si>
   <si>
     <t>Motohashi Rieko</t>
+  </si>
+  <si>
+    <t>研究テーマダミー</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケンキュウテーマ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -631,7 +638,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,14 +651,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -733,21 +734,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -773,18 +765,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1117,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1155,483 +1135,663 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A2" s="19">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Matsushita Momoka</v>
+      </c>
+      <c r="F2" t="str" cm="1">
+        <f t="array" aca="1" ref="F2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Matsushita Momoka</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="19">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
         <v>Oonish iChizuko</v>
       </c>
+      <c r="F3" t="str" cm="1">
+        <f t="array" aca="1" ref="F3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Kitao Eiji</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A4" s="19">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Kitao Eiji</v>
+      </c>
+      <c r="F4" t="str" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A5" s="19">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Kitao Eiji</v>
+      </c>
+      <c r="F5" t="str" cm="1">
+        <f t="array" aca="1" ref="F5" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Kamino Yoshio</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A6" s="19">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Matsushita Momoka</v>
+      </c>
+      <c r="F6" t="str" cm="1">
+        <f t="array" aca="1" ref="F6" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Masuda Seisuke</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A7" s="19">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E7" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Nomura Masakichi</v>
+      </c>
+      <c r="F7" t="str" cm="1">
+        <f t="array" aca="1" ref="F7" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Kamino Yoshio</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A8" s="19">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E8" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Kitao Eiji</v>
+      </c>
+      <c r="F8" t="str" cm="1">
+        <f t="array" aca="1" ref="F8" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
         <v>Matsushita Momoka</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A9" s="19">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E9" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
         <v>Fukumoto Tatsuyuki</v>
       </c>
+      <c r="F9" t="str" cm="1">
+        <f t="array" aca="1" ref="F9" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Nomura Masakichi</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A10" s="19">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E10" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Nomura Masakichi</v>
+      </c>
+      <c r="F10" t="str" cm="1">
+        <f t="array" aca="1" ref="F10" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Masuda Seisuke</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A11" s="19">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E11" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
         <v>Atsumi Amna</v>
       </c>
+      <c r="F11" t="str" cm="1">
+        <f t="array" aca="1" ref="F11" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Fukumoto Tatsuyuki</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A12" s="19">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E12" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
         <v>Nomura Masakichi</v>
       </c>
+      <c r="F12" t="str" cm="1">
+        <f t="array" aca="1" ref="F12" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Matsumura Touma</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A13" s="19">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E13" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Nomura Masakichi</v>
+      </c>
+      <c r="F13" t="str" cm="1">
+        <f t="array" aca="1" ref="F13" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Matsushita Momoka</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A14" s="19">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E14" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Masuda Seisuke</v>
+      </c>
+      <c r="F14" t="str" cm="1">
+        <f t="array" aca="1" ref="F14" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Nomura Masakichi</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A15" s="19">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E15" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Atsumi Amna</v>
+      </c>
+      <c r="F15" t="str" cm="1">
+        <f t="array" aca="1" ref="F15" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Matsumura Touma</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A16" s="19">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E16" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A17" s="19">
+        <v>Matsushita Momoka</v>
+      </c>
+      <c r="F16" t="str" cm="1">
+        <f t="array" aca="1" ref="F16" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Matsushita Momoka</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E17" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A18" s="19">
+        <v>Kamino Yoshio</v>
+      </c>
+      <c r="F17" t="str" cm="1">
+        <f t="array" aca="1" ref="F17" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Oonish iChizuko</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E18" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A19" s="19">
+        <v>Kitao Eiji</v>
+      </c>
+      <c r="F18" t="str" cm="1">
+        <f t="array" aca="1" ref="F18" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Oonish iChizuko</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E19" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A20" s="19">
+        <v>Atsumi Amna</v>
+      </c>
+      <c r="F19" t="str" cm="1">
+        <f t="array" aca="1" ref="F19" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Atsumi Amna</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E20" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" s="19">
+        <v>Oonish iChizuko</v>
+      </c>
+      <c r="F20" t="str" cm="1">
+        <f t="array" aca="1" ref="F20" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Oonish iChizuko</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E21" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A22" s="19">
+        <v>Matsumura Touma</v>
+      </c>
+      <c r="F21" t="str" cm="1">
+        <f t="array" aca="1" ref="F21" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Oonish iChizuko</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E22" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A23" s="19">
+        <v>Matsumura Touma</v>
+      </c>
+      <c r="F22" t="str" cm="1">
+        <f t="array" aca="1" ref="F22" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Atsumi Amna</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E23" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A24" s="19">
+        <v>Matsumura Touma</v>
+      </c>
+      <c r="F23" t="str" cm="1">
+        <f t="array" aca="1" ref="F23" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Oonish iChizuko</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E24" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A25" s="19">
+        <v>Kitao Eiji</v>
+      </c>
+      <c r="F24" t="str" cm="1">
+        <f t="array" aca="1" ref="F24" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Masuda Seisuke</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E25" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A26" s="19">
+        <v>Nomura Masakichi</v>
+      </c>
+      <c r="F25" t="str" cm="1">
+        <f t="array" aca="1" ref="F25" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Kitao Eiji</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E26" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E26" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A27" s="19">
+        <v>Matsumura Touma</v>
+      </c>
+      <c r="F26" t="str" cm="1">
+        <f t="array" aca="1" ref="F26" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Masuda Seisuke</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E27" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A28" s="19">
+        <v>Nomura Masakichi</v>
+      </c>
+      <c r="F27" t="str" cm="1">
+        <f t="array" aca="1" ref="F27" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Kamino Yoshio</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E28" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A29" s="19">
+        <v>Matsumura Touma</v>
+      </c>
+      <c r="F28" t="str" cm="1">
+        <f t="array" aca="1" ref="F28" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Matsushita Momoka</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E29" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A30" s="19">
+        <v>Matsushita Momoka</v>
+      </c>
+      <c r="F29" t="str" cm="1">
+        <f t="array" aca="1" ref="F29" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Fukumoto Tatsuyuki</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E30" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A31" s="19">
+        <v>Masuda Seisuke</v>
+      </c>
+      <c r="F30" t="str" cm="1">
+        <f t="array" aca="1" ref="F30" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Matsumura Touma</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A31" s="15">
         <v>30</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E31" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Fukumoto Tatsuyuki</v>
+      </c>
+      <c r="F31" t="str" cm="1">
+        <f t="array" aca="1" ref="F31" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
     </row>
     <row r="35" spans="2:2">
@@ -1651,7 +1811,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -1688,91 +1848,99 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A2" s="19">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="F2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="G2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Nomura Masakichi</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A3" s="19">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
         <v>Nomura Masakichi</v>
       </c>
       <c r="F3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Masuda Seisuke</v>
       </c>
       <c r="G3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Oonish iChizuko</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A4" s="19">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="F4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Kitao Eiji</v>
       </c>
       <c r="G4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Matsushita Momoka</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A5" s="19">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="F5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
@@ -1780,71 +1948,77 @@
       </c>
       <c r="G5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A6" s="19">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
       <c r="F6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="G6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Kamino Yoshio</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A7" s="19">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E7" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Masuda Seisuke</v>
       </c>
       <c r="F7" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="G7" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Atsumi Amna</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A8" s="19">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E8" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Masuda Seisuke</v>
       </c>
       <c r="F8" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
@@ -1852,47 +2026,51 @@
       </c>
       <c r="G8" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Kitao Eiji</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A9" s="19">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E9" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Nomura Masakichi</v>
       </c>
       <c r="F9" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="G9" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Oonish iChizuko</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A10" s="19">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E10" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="F10" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
@@ -1900,51 +2078,55 @@
       </c>
       <c r="G10" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Kitao Eiji</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A11" s="19">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E11" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="F11" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Masuda Seisuke</v>
       </c>
       <c r="G11" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A12" s="19">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E12" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
         <v>Fukumoto Tatsuyuki</v>
       </c>
       <c r="F12" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Kitao Eiji</v>
       </c>
       <c r="G12" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
@@ -1952,71 +2134,77 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A13" s="19">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E13" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="F13" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="G13" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Kitao Eiji</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A14" s="19">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E14" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="F14" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Masuda Seisuke</v>
       </c>
       <c r="G14" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Masuda Seisuke</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A15" s="19">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E15" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
         <v>Matsushita Momoka</v>
       </c>
       <c r="F15" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="G15" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
@@ -2024,67 +2212,73 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="19">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E16" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="F16" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="G16" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Masuda Seisuke</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="19">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E17" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
       <c r="F17" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="G17" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Atsumi Amna</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A18" s="19">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E18" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="F18" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
@@ -2092,195 +2286,211 @@
       </c>
       <c r="G18" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Nomura Masakichi</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A19" s="19">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E19" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="F19" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="G19" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Matsushita Momoka</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A20" s="19">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E20" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="F20" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Nomura Masakichi</v>
       </c>
       <c r="G20" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A21" s="19">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E21" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
       <c r="F21" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="G21" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Masuda Seisuke</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A22" s="19">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E22" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="F22" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="G22" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Matsushita Momoka</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A23" s="19">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E23" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
       <c r="F23" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="G23" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Masuda Seisuke</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A24" s="19">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E24" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="F24" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="G24" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Matsushita Momoka</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A25" s="19">
+      <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E25" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="F25" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
       <c r="G25" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Masuda Seisuke</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A26" s="19">
+      <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E26" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E26" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="F26" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F26" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="G26" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
@@ -2288,123 +2498,133 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A27" s="19">
+      <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E27" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
         <v>Atsumi Amna</v>
       </c>
       <c r="F27" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="G27" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Atsumi Amna</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A28" s="19">
+      <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E28" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Masuda Seisuke</v>
       </c>
       <c r="F28" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Kitao Eiji</v>
       </c>
       <c r="G28" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Matsumura Touma</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A29" s="19">
+      <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E29" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="F29" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="G29" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Kitao Eiji</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A30" s="19">
+      <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E30" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Masuda Seisuke</v>
       </c>
       <c r="F30" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="G30" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Atsumi Amna</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A31" s="19">
+      <c r="A31" s="15">
         <v>30</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="E31" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="F31" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="G31" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Kamino Yoshio</v>
       </c>
     </row>
   </sheetData>
@@ -2429,63 +2649,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1">
-      <c r="A2" s="19">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="F2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
       <c r="G2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Matsumura Touma</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25" customHeight="1">
-      <c r="A3" s="19">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
         <v>Kamino Yoshio</v>
@@ -2496,7 +2716,7 @@
       </c>
       <c r="G3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
     </row>
   </sheetData>
@@ -2509,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D082226-E75F-6149-91C6-8B434607422F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2521,96 +2741,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="19">
+      <c r="A2" s="15">
         <v>3</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Kitao Eiji</v>
       </c>
       <c r="F2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Nomura Masakichi</v>
       </c>
       <c r="G2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Atsumi Amna</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="19">
+      <c r="A3" s="15">
         <v>4</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>148</v>
       </c>
       <c r="E3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="F3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Nomura Masakichi</v>
       </c>
       <c r="G3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Oonish iChizuko</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="19">
+      <c r="A4" s="15">
         <v>5</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>150</v>
       </c>
       <c r="E4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
       <c r="F4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="G4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Nomura Masakichi</v>
       </c>
     </row>
   </sheetData>
@@ -2634,94 +2854,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
-      <c r="A2" s="19">
+      <c r="A2" s="15">
         <v>6</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="F2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Kitao Eiji</v>
       </c>
       <c r="G2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Oonish iChizuko</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
-      <c r="A3" s="19">
+      <c r="A3" s="15">
         <v>7</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
         <v>Matsushita Momoka</v>
       </c>
       <c r="F3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Masuda Seisuke</v>
       </c>
       <c r="G3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
-      <c r="A4" s="19">
+      <c r="A4" s="15">
         <v>8</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
         <v>Atsumi Amna</v>
       </c>
       <c r="F4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Masuda Seisuke</v>
       </c>
       <c r="G4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
@@ -2729,49 +2949,49 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="19">
+      <c r="A5" s="15">
         <v>9</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>158</v>
       </c>
       <c r="E5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="F5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Masuda Seisuke</v>
       </c>
       <c r="G5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Masuda Seisuke</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="19">
+      <c r="A6" s="15">
         <v>10</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="15" t="s">
         <v>160</v>
       </c>
       <c r="E6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
       <c r="F6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="G6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Kitao Eiji</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2797,47 +3017,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="22" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="22" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="22" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="22" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="22" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="22" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="22" customHeight="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="22" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="22" customHeight="1">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="15" t="s">
         <v>80</v>
       </c>
     </row>

--- a/public/sample.xlsx
+++ b/public/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Extreme Pro/Dropbox/project/iaFukusa/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B7BDDA-9606-1545-B511-746148674DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C5E6D5-D3B0-A742-AF6F-BE016B2D078D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25780" yWindow="6240" windowWidth="26680" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21860" yWindow="8740" windowWidth="26680" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="163">
   <si>
     <t>学修番号</t>
   </si>
@@ -566,6 +566,10 @@
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ケンキュウテーマ </t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>test test</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1098,7 +1102,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1153,7 +1157,7 @@
       </c>
       <c r="F2" t="str" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Atsumi Amna</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
@@ -1171,11 +1175,11 @@
       </c>
       <c r="E3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
       <c r="F3" t="str" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Atsumi Amna</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1">
@@ -1193,11 +1197,11 @@
       </c>
       <c r="E4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
       <c r="F4" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Kitao Eiji</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1">
@@ -1215,11 +1219,11 @@
       </c>
       <c r="E5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="F5" t="str" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Matsushita Momoka</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1">
@@ -1237,11 +1241,11 @@
       </c>
       <c r="E6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="F6" t="str" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1">
@@ -1259,11 +1263,11 @@
       </c>
       <c r="E7" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Masuda Seisuke</v>
       </c>
       <c r="F7" t="str" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Oonish iChizuko</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1">
@@ -1281,11 +1285,11 @@
       </c>
       <c r="E8" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="F8" t="str" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Matsumura Touma</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1">
@@ -1303,11 +1307,11 @@
       </c>
       <c r="E9" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="F9" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Matsumura Touma</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1">
@@ -1325,11 +1329,11 @@
       </c>
       <c r="E10" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Masuda Seisuke</v>
       </c>
       <c r="F10" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Matsushita Momoka</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1">
@@ -1347,11 +1351,11 @@
       </c>
       <c r="E11" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="F11" t="str" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Masuda Seisuke</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" customHeight="1">
@@ -1369,11 +1373,11 @@
       </c>
       <c r="E12" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="F12" t="str" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Matsushita Momoka</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" customHeight="1">
@@ -1391,11 +1395,11 @@
       </c>
       <c r="E13" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="F13" t="str" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" customHeight="1">
@@ -1413,11 +1417,11 @@
       </c>
       <c r="E14" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
       <c r="F14" t="str" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Masuda Seisuke</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1">
@@ -1435,7 +1439,7 @@
       </c>
       <c r="E15" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Kitao Eiji</v>
       </c>
       <c r="F15" t="str" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
@@ -1457,7 +1461,7 @@
       </c>
       <c r="E16" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Kitao Eiji</v>
       </c>
       <c r="F16" t="str" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
@@ -1479,11 +1483,11 @@
       </c>
       <c r="E17" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="F17" t="str" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Matsumura Touma</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1">
@@ -1501,11 +1505,11 @@
       </c>
       <c r="E18" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Masuda Seisuke</v>
       </c>
       <c r="F18" t="str" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Masuda Seisuke</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1">
@@ -1523,11 +1527,11 @@
       </c>
       <c r="E19" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="F19" t="str" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Matsumura Touma</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1">
@@ -1545,11 +1549,11 @@
       </c>
       <c r="E20" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="F20" t="str" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Matsushita Momoka</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1">
@@ -1567,11 +1571,11 @@
       </c>
       <c r="E21" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Masuda Seisuke</v>
       </c>
       <c r="F21" t="str" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Atsumi Amna</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1">
@@ -1589,11 +1593,11 @@
       </c>
       <c r="E22" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Kitao Eiji</v>
       </c>
       <c r="F22" t="str" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Masuda Seisuke</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1">
@@ -1611,11 +1615,11 @@
       </c>
       <c r="E23" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="F23" t="str" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Matsushita Momoka</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1">
@@ -1633,7 +1637,7 @@
       </c>
       <c r="E24" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="F24" t="str" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
@@ -1655,11 +1659,11 @@
       </c>
       <c r="E25" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Kitao Eiji</v>
       </c>
       <c r="F25" t="str" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Nomura Masakichi</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" customHeight="1">
@@ -1677,11 +1681,11 @@
       </c>
       <c r="E26" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E26" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Kitao Eiji</v>
       </c>
       <c r="F26" t="str" cm="1">
         <f t="array" aca="1" ref="F26" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Kitao Eiji</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1">
@@ -1699,11 +1703,11 @@
       </c>
       <c r="E27" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Kitao Eiji</v>
       </c>
       <c r="F27" t="str" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Matsushita Momoka</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1">
@@ -1721,11 +1725,11 @@
       </c>
       <c r="E28" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Masuda Seisuke</v>
       </c>
       <c r="F28" t="str" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1">
@@ -1747,7 +1751,7 @@
       </c>
       <c r="F29" t="str" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Oonish iChizuko</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1">
@@ -1765,11 +1769,11 @@
       </c>
       <c r="E30" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
       <c r="F30" t="str" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Oonish iChizuko</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1">
@@ -1787,11 +1791,10 @@
       </c>
       <c r="E31" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
-      </c>
-      <c r="F31" t="str" cm="1">
-        <f t="array" aca="1" ref="F31" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Kamino Yoshio</v>
+      </c>
+      <c r="F31" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="2:2">
@@ -1862,15 +1865,15 @@
       </c>
       <c r="E2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Nomura Masakichi</v>
       </c>
       <c r="F2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="G2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Matsushita Momoka</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1">
@@ -1888,15 +1891,15 @@
       </c>
       <c r="E3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="F3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="G3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Masuda Seisuke</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1">
@@ -1914,15 +1917,15 @@
       </c>
       <c r="E4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Kitao Eiji</v>
       </c>
       <c r="F4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="G4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Masuda Seisuke</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21.75" customHeight="1">
@@ -1944,11 +1947,11 @@
       </c>
       <c r="F5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="G5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Matsumura Touma</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21.75" customHeight="1">
@@ -1966,11 +1969,11 @@
       </c>
       <c r="E6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="F6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="G6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
@@ -1992,15 +1995,15 @@
       </c>
       <c r="E7" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Nomura Masakichi</v>
       </c>
       <c r="F7" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="G7" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Masuda Seisuke</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21.75" customHeight="1">
@@ -2018,15 +2021,15 @@
       </c>
       <c r="E8" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="F8" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="G8" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Nomura Masakichi</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21.75" customHeight="1">
@@ -2044,15 +2047,15 @@
       </c>
       <c r="E9" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="F9" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Kitao Eiji</v>
       </c>
       <c r="G9" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Kamino Yoshio</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21.75" customHeight="1">
@@ -2074,11 +2077,11 @@
       </c>
       <c r="F10" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
       <c r="G10" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Kamino Yoshio</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21.75" customHeight="1">
@@ -2096,15 +2099,15 @@
       </c>
       <c r="E11" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Masuda Seisuke</v>
       </c>
       <c r="F11" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
       <c r="G11" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Oonish iChizuko</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1">
@@ -2122,15 +2125,15 @@
       </c>
       <c r="E12" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Kitao Eiji</v>
       </c>
       <c r="F12" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
       <c r="G12" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Kamino Yoshio</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="21.75" customHeight="1">
@@ -2148,15 +2151,15 @@
       </c>
       <c r="E13" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="F13" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="G13" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Atsumi Amna</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21.75" customHeight="1">
@@ -2174,15 +2177,15 @@
       </c>
       <c r="E14" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="F14" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="G14" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Oonish iChizuko</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21.75" customHeight="1">
@@ -2200,15 +2203,15 @@
       </c>
       <c r="E15" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="F15" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="G15" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Atsumi Amna</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
@@ -2226,15 +2229,15 @@
       </c>
       <c r="E16" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Nomura Masakichi</v>
       </c>
       <c r="F16" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="G16" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
@@ -2256,11 +2259,11 @@
       </c>
       <c r="F17" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="G17" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Matsumura Touma</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="21.75" customHeight="1">
@@ -2278,15 +2281,15 @@
       </c>
       <c r="E18" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="F18" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="G18" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Matsumura Touma</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="21.75" customHeight="1">
@@ -2304,15 +2307,15 @@
       </c>
       <c r="E19" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Masuda Seisuke</v>
       </c>
       <c r="F19" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Kitao Eiji</v>
       </c>
       <c r="G19" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Atsumi Amna</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="21.75" customHeight="1">
@@ -2330,15 +2333,15 @@
       </c>
       <c r="E20" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="F20" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="G20" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Matsumura Touma</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="21.75" customHeight="1">
@@ -2356,15 +2359,15 @@
       </c>
       <c r="E21" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="F21" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Kitao Eiji</v>
       </c>
       <c r="G21" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Nomura Masakichi</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="21.75" customHeight="1">
@@ -2382,15 +2385,15 @@
       </c>
       <c r="E22" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="F22" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="G22" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Kitao Eiji</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="21.75" customHeight="1">
@@ -2408,15 +2411,15 @@
       </c>
       <c r="E23" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="F23" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="G23" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Nomura Masakichi</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="21.75" customHeight="1">
@@ -2438,11 +2441,11 @@
       </c>
       <c r="F24" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="G24" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Kamino Yoshio</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="21.75" customHeight="1">
@@ -2460,15 +2463,15 @@
       </c>
       <c r="E25" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="F25" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="G25" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Matsushita Momoka</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="21.75" customHeight="1">
@@ -2486,15 +2489,15 @@
       </c>
       <c r="E26" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E26" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="F26" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F26" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="G26" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Masuda Seisuke</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1">
@@ -2512,15 +2515,15 @@
       </c>
       <c r="E27" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Nomura Masakichi</v>
       </c>
       <c r="F27" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="G27" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Kitao Eiji</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="21.75" customHeight="1">
@@ -2538,15 +2541,15 @@
       </c>
       <c r="E28" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="F28" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="G28" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Oonish iChizuko</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="21.75" customHeight="1">
@@ -2564,15 +2567,15 @@
       </c>
       <c r="E29" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="F29" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="G29" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Oonish iChizuko</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="21.75" customHeight="1">
@@ -2590,15 +2593,15 @@
       </c>
       <c r="E30" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="F30" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="G30" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Matsumura Touma</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="21.75" customHeight="1">
@@ -2620,11 +2623,11 @@
       </c>
       <c r="F31" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="G31" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Oonish iChizuko</v>
       </c>
     </row>
   </sheetData>
@@ -2684,15 +2687,15 @@
       <c r="D2" s="11"/>
       <c r="E2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
       <c r="F2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Kitao Eiji</v>
       </c>
       <c r="G2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25" customHeight="1">
@@ -2708,15 +2711,15 @@
       <c r="D3" s="11"/>
       <c r="E3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="F3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="G3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Matsumura Touma</v>
       </c>
     </row>
   </sheetData>
@@ -2776,15 +2779,15 @@
       <c r="D2" s="11"/>
       <c r="E2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Masuda Seisuke</v>
       </c>
       <c r="F2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="G2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Masuda Seisuke</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2799,15 +2802,15 @@
       </c>
       <c r="E3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="F3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Matsumura Touma</v>
       </c>
       <c r="G3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Matsumura Touma</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2822,15 +2825,15 @@
       </c>
       <c r="E4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="F4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Oonish iChizuko</v>
       </c>
       <c r="G4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Nomura Masakichi</v>
+        <v>Oonish iChizuko</v>
       </c>
     </row>
   </sheetData>
@@ -2889,15 +2892,15 @@
       <c r="D2" s="11"/>
       <c r="E2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="F2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
       <c r="G2" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Oonish iChizuko</v>
+        <v>Fukumoto Tatsuyuki</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -2913,15 +2916,15 @@
       <c r="D3" s="11"/>
       <c r="E3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsushita Momoka</v>
+        <v>Nomura Masakichi</v>
       </c>
       <c r="F3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Atsumi Amna</v>
       </c>
       <c r="G3" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Kamino Yoshio</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -2937,15 +2940,15 @@
       <c r="D4" s="11"/>
       <c r="E4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Nomura Masakichi</v>
       </c>
       <c r="F4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="G4" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kamino Yoshio</v>
+        <v>Atsumi Amna</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2960,15 +2963,15 @@
       </c>
       <c r="E5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Atsumi Amna</v>
+        <v>Kitao Eiji</v>
       </c>
       <c r="F5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="G5" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Masuda Seisuke</v>
+        <v>Matsumura Touma</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2983,15 +2986,15 @@
       </c>
       <c r="E6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Fukumoto Tatsuyuki</v>
+        <v>Matsushita Momoka</v>
       </c>
       <c r="F6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Matsumura Touma</v>
+        <v>Kamino Yoshio</v>
       </c>
       <c r="G6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDEX(教員一覧!$A$1:$A$12,RANDBETWEEN(1,9))</f>
-        <v>Kitao Eiji</v>
+        <v>Matsushita Momoka</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3007,8 +3010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69068F9E-E8B1-9E40-B578-312A58A7CF85}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
